--- a/Outputs/manuscript/tables.xlsx
+++ b/Outputs/manuscript/tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbdaniels/Dropbox/WorldBank/SSM-Papers/Outputs/manuscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbdaniels/GitHub/ssm-rhcp-2019/Outputs/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5462C6B-CF8E-C844-8A5B-FFFAFC7C2204}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC356AB9-C597-3F45-8F35-E021FE1BF365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>Public Sector</t>
   </si>
@@ -216,18 +216,12 @@
     <numFmt numFmtId="169" formatCode="0.0%"/>
     <numFmt numFmtId="170" formatCode="#0_*_*_*"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -306,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -400,15 +394,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -435,10 +420,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -452,10 +437,10 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -466,52 +451,55 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,41 +825,41 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="14" style="26" customWidth="1"/>
+    <col min="2" max="6" width="14" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="38">
+      <c r="B1" s="36">
         <v>-1</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="36">
         <v>-2</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="36">
         <v>-3</v>
       </c>
-      <c r="E1" s="38">
+      <c r="E1" s="36">
         <v>-4</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="36">
         <v>-5</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>30</v>
       </c>
     </row>
@@ -879,19 +867,19 @@
       <c r="A3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>0.1158918</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>7.5810299999999997E-2</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>0.1566332</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>0.61814369999999996</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>0.34603509999999998</v>
       </c>
     </row>
@@ -899,19 +887,19 @@
       <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>3.7915999999999998E-2</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>7.4406700000000006E-2</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>0.11232259999999999</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>0.51221039999999995</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="24">
         <v>0.47592889999999999</v>
       </c>
     </row>
@@ -919,19 +907,19 @@
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>3.8598100000000003E-2</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>3.7643099999999999E-2</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>7.6241100000000006E-2</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="24">
         <v>0.96235689999999996</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>3.7643099999999999E-2</v>
       </c>
     </row>
@@ -939,19 +927,19 @@
       <c r="A6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>2.6143199999999998E-2</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>4.1432999999999998E-2</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>6.7576200000000003E-2</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>0.91232630000000003</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>7.5341599999999995E-2</v>
       </c>
     </row>
@@ -959,19 +947,19 @@
       <c r="A7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>9.4918600000000006E-2</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>4.1495900000000002E-2</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>0.1116605</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="24">
         <v>0.4432258</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>0.5567742</v>
       </c>
     </row>
@@ -979,19 +967,19 @@
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>4.9821200000000003E-2</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>0</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>4.9821200000000003E-2</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>0.9624106</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>3.7589400000000002E-2</v>
       </c>
     </row>
@@ -999,19 +987,19 @@
       <c r="A9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>0.05</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>0</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <v>0.05</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="24">
         <v>0.41249999999999998</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>0.5625</v>
       </c>
     </row>
@@ -1019,19 +1007,19 @@
       <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>0</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>3.7260000000000001E-2</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>3.7260000000000001E-2</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>0.72406519999999996</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>0.26385170000000002</v>
       </c>
     </row>
@@ -1039,19 +1027,19 @@
       <c r="A11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>0.1154642</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>7.0234400000000002E-2</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>0.18569859999999999</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>0.46978330000000001</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>0.48523050000000001</v>
       </c>
     </row>
@@ -1059,19 +1047,19 @@
       <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>0.37875310000000001</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>0.29013699999999998</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>0.56110899999999997</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>0.87157059999999997</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>7.0458199999999999E-2</v>
       </c>
     </row>
@@ -1079,19 +1067,19 @@
       <c r="A13" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>7.5735000000000004E-3</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>3.7504599999999999E-2</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <v>4.5078100000000003E-2</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <v>0.88850910000000005</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>0.1114909</v>
       </c>
     </row>
@@ -1099,19 +1087,19 @@
       <c r="A14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>2.64339E-2</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>2.6367100000000001E-2</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <v>3.9584099999999997E-2</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <v>0.61484689999999997</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>0.38515310000000003</v>
       </c>
     </row>
@@ -1119,19 +1107,19 @@
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>4.2600600000000002E-2</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>0</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <v>4.2600600000000002E-2</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>0.72230309999999998</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>0.27769690000000002</v>
       </c>
     </row>
@@ -1139,19 +1127,19 @@
       <c r="A16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>0.16458529999999999</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>3.8260000000000002E-2</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <v>0.17764160000000001</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="24">
         <v>0.96052420000000005</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>3.9475799999999998E-2</v>
       </c>
     </row>
@@ -1159,19 +1147,19 @@
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>4.99379E-2</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>3.2862599999999999E-2</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <v>7.1846300000000002E-2</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="24">
         <v>0.81749179999999999</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>0.18250830000000001</v>
       </c>
     </row>
@@ -1179,19 +1167,19 @@
       <c r="A18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>6.6390699999999997E-2</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>7.5549599999999995E-2</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <v>0.1193403</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="24">
         <v>0.38704880000000003</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>0.57730999999999999</v>
       </c>
     </row>
@@ -1199,19 +1187,19 @@
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>3.6784600000000001E-2</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>2.73704E-2</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="24">
         <v>5.2097299999999999E-2</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="24">
         <v>0.96137609999999996</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <v>2.3311200000000001E-2</v>
       </c>
     </row>
@@ -1219,59 +1207,59 @@
       <c r="A20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>0</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>1.31466E-2</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <v>1.31466E-2</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="24">
         <v>0.68448109999999995</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="24">
         <v>0.31551889999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="28">
         <v>6.2896800000000003E-2</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="28">
         <v>0.19285179999999999</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <v>0.22942219999999999</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="28">
         <v>0.97355400000000003</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="28">
         <v>2.6446000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>6.4126500000000003E-2</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="32">
         <v>6.0103499999999997E-2</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="32">
         <v>0.1093092</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="32">
         <v>0.75030680000000005</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F22" s="32">
         <v>0.23362849999999999</v>
       </c>
     </row>
@@ -1290,421 +1278,421 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.83203125" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="18"/>
+    <col min="1" max="1" width="28.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.83203125" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="38">
+      <c r="B1" s="36">
         <v>-1</v>
       </c>
-      <c r="C1" s="38">
+      <c r="C1" s="36">
         <v>-2</v>
       </c>
-      <c r="D1" s="38">
+      <c r="D1" s="36">
         <v>-3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>22.514249648796291</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>22.542368594070389</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <v>22.84522130904185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>5.0509956729458692</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>4.9914988197683519</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>4.9010901894850134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>11.488034143740069</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>10.192316614668631</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>8.1513283337240612</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>2.9558869297900752</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>3.0211278568390929</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>2.860444175899044</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>0.10782960631353999</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>8.5007960845370004E-2</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>7.3333838622140005E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>1.1857430186309999E-4</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>1.168764607003E-4</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>1.360441090213E-4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>0.97533653023810185</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>2.5167769474490238</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>3.140111246491005</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>1.425994131584104</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>1.3923173432672</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>1.4268587324062501</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>-1.087693351042895</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>-1.168611009283486</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>-0.97854815528162586</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>2.9786569508930221</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>3.1236596236984009</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>3.3155023501836731</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>1.383838220948125</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>1.3205404370178859</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>1.3588563053771321</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>2.9852350131827601</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>3.1328819952061</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>3.316215397915196</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>2.383678114771989</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>2.5189349215757089</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>2.8060647054831822</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>3.0121825195862999</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>3.162220709588786</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>3.34486615828731</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>3.8097823433080449</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>3.2379764434661449</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <v>2.87685316034529</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>0.48172438365227982</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>0.48827174673092311</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>0.50541704621996753</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>0.94477636554091038</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>0.91024029646014215</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>0.65171488956250623</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>0.650622214752127</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>0.64149908945368361</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>0.63462036668167565</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>-0.99314719384658889</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>-0.84521752848743936</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>-1.214827252098253</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>1.1756378464566311</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>1.1567206395463649</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>1.1640110475802481</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B23"/>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>5.5283293545528229</v>
       </c>
       <c r="D23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B24"/>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>0.90974262819675</v>
       </c>
       <c r="D24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B25"/>
-      <c r="C25" s="21">
+      <c r="C25" s="20">
         <v>-5.26072754012104E-2</v>
       </c>
       <c r="D25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B26"/>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>1.8081189215723801E-2</v>
       </c>
       <c r="D26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>3.3912368556377839</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>-0.13227455398287619</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>3.3658663158880362</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="23">
         <v>3.2625453487765079</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="23">
         <v>3.6544560342198338</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>3.565953140736577</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="30">
         <v>3143</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="30">
         <v>3143</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="30">
         <v>3143</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>14.26363922947403</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>14.26363922947403</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>14.26363922947403</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="23">
         <v>17.90128200436645</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>17.90128200436645</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="23">
         <v>17.90128200436645</v>
       </c>
     </row>
@@ -1716,561 +1704,659 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="J14" sqref="J14:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
-    <col min="4" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.1640625" customWidth="1"/>
+    <col min="11" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="37"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="37"/>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="38">
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="36">
         <v>-1</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="36">
         <v>-2</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="36">
         <v>-3</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="36">
         <v>-4</v>
       </c>
-      <c r="G2" s="38">
+      <c r="F2" s="36">
         <v>-5</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="36">
         <v>-6</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="36">
         <v>-7</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="36">
         <v>-8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="K2" s="36">
+        <v>-9</v>
+      </c>
+      <c r="L2" s="36">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="35" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>0.56121324933017558</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>0.65632594318798976</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="38">
+        <v>0.48006645098854772</v>
+      </c>
+      <c r="E4" s="22">
         <v>0.33051592202045671</v>
       </c>
-      <c r="G4" s="30">
+      <c r="H4" s="29">
         <v>0.25016840817816149</v>
       </c>
-      <c r="H4" s="23">
+      <c r="I4" s="22">
         <v>0.57937142981453615</v>
       </c>
-      <c r="I4" s="22">
+      <c r="J4" s="39">
+        <v>6.5234783608166896E-2</v>
+      </c>
+      <c r="K4" s="21">
         <v>8.1069963186720398E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>0.1522954060258272</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>0.2163001074935299</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="39">
+        <v>0.19233533610090359</v>
+      </c>
+      <c r="E5" s="21">
         <v>0.1588421248795778</v>
       </c>
-      <c r="G5" s="22">
+      <c r="H5" s="21">
         <v>0.1393189104760218</v>
       </c>
-      <c r="H5" s="22">
+      <c r="I5" s="21">
         <v>0.22784349420590899</v>
       </c>
-      <c r="I5" s="22">
+      <c r="J5" s="39">
+        <v>0.17193908478555539</v>
+      </c>
+      <c r="K5" s="21">
         <v>0.16745381983752719</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>-0.30924910681999718</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>0.18766164446218619</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="40">
+        <v>-0.53570588841842304</v>
+      </c>
+      <c r="E6" s="20">
         <v>-0.28069368237635078</v>
       </c>
-      <c r="E6" s="21">
+      <c r="F6" s="20">
         <v>-0.31102196419501682</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22">
+      <c r="G6" s="20"/>
+      <c r="H6" s="21">
         <v>-1.66542114248775E-2</v>
       </c>
-      <c r="H6" s="23">
+      <c r="I6" s="22">
         <v>0.36314767833924672</v>
       </c>
-      <c r="I6" s="30">
+      <c r="J6" s="38">
+        <v>-0.2279444102399529</v>
+      </c>
+      <c r="K6" s="29">
         <v>-0.18517990192062289</v>
       </c>
-      <c r="J6" s="23">
+      <c r="L6" s="22">
         <v>-0.23130453817539609</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>0.12743778024588059</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>0.23824995775409891</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="39">
+        <v>0.13945749866996959</v>
+      </c>
+      <c r="E7" s="21">
         <v>0.1061385017855308</v>
       </c>
-      <c r="E7" s="22">
+      <c r="F7" s="21">
         <v>0.11485691821640311</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22">
+      <c r="G7" s="21"/>
+      <c r="H7" s="21">
         <v>0.1069831280086025</v>
       </c>
-      <c r="H7" s="22">
+      <c r="I7" s="21">
         <v>0.17362208185530709</v>
       </c>
-      <c r="I7" s="22">
+      <c r="J7" s="39">
+        <v>0.11379034794698301</v>
+      </c>
+      <c r="K7" s="21">
         <v>9.9923330369449101E-2</v>
       </c>
-      <c r="J7" s="22">
+      <c r="L7" s="21">
         <v>9.9297407939974797E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>-1.5310790756463001E-3</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>-2.2141415016445801E-2</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="39">
+        <v>-3.1625871631349998E-4</v>
+      </c>
+      <c r="E8" s="21">
         <v>-8.8455885755389999E-4</v>
       </c>
-      <c r="E8" s="22">
+      <c r="F8" s="21">
         <v>-1.4298567232211999E-3</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22">
+      <c r="G8" s="21"/>
+      <c r="H8" s="21">
         <v>-4.8210068390163998E-3</v>
       </c>
-      <c r="H8" s="30">
+      <c r="I8" s="29">
         <v>-2.6866747619026601E-2</v>
       </c>
-      <c r="I8" s="22">
+      <c r="J8" s="39">
+        <v>-3.7753611968754002E-3</v>
+      </c>
+      <c r="K8" s="21">
         <v>-4.2764949306440996E-3</v>
       </c>
-      <c r="J8" s="22">
+      <c r="L8" s="21">
         <v>-5.1449281846435999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>4.1317710399386004E-3</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>1.8859988094596099E-2</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="39">
+        <v>4.2049257149288002E-3</v>
+      </c>
+      <c r="E9" s="21">
         <v>3.5679608712311001E-3</v>
       </c>
-      <c r="E9" s="22">
+      <c r="F9" s="21">
         <v>3.6459049169599001E-3</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21">
         <v>3.4759299199722E-3</v>
       </c>
-      <c r="H9" s="22">
+      <c r="I9" s="21">
         <v>1.46470239935792E-2</v>
       </c>
-      <c r="I9" s="22">
+      <c r="J9" s="39">
+        <v>3.5870400215634998E-3</v>
+      </c>
+      <c r="K9" s="21">
         <v>3.4663285369311001E-3</v>
       </c>
-      <c r="J9" s="22">
+      <c r="L9" s="21">
         <v>3.5447336668724002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="29">
         <v>0.33185103393838411</v>
       </c>
-      <c r="G10" s="22">
+      <c r="H10" s="21">
         <v>6.5174633976522206E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>0.1697747582319748</v>
       </c>
-      <c r="G11" s="22">
+      <c r="H11" s="21">
         <v>0.13749714077705519</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="21">
+      <c r="E12" s="20">
         <v>0.88682104894119651</v>
       </c>
-      <c r="E12" s="21">
+      <c r="F12" s="20">
         <v>0.88242778925756138</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="I12" s="21">
+      <c r="G12" s="20"/>
+      <c r="K12" s="20">
         <v>0.54723460455976858</v>
       </c>
-      <c r="J12" s="21">
+      <c r="L12" s="20">
         <v>0.54038233577596118</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="22">
+      <c r="E13" s="21">
         <v>6.1878425595894099E-2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="F13" s="21">
         <v>6.30686022056023E-2</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="I13" s="22">
+      <c r="G13" s="21"/>
+      <c r="K13" s="21">
         <v>7.2105891528008004E-2</v>
       </c>
-      <c r="J13" s="22">
+      <c r="L13" s="21">
         <v>7.2709269699068102E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>0.6364876564837556</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>0.14864688301243659</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="40">
+        <v>0.67669918391932238</v>
+      </c>
+      <c r="E14" s="21">
         <v>6.1948692914858099E-2</v>
       </c>
-      <c r="E14" s="22">
+      <c r="F14" s="21">
         <v>3.8283772408178401E-2</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22">
+      <c r="G14" s="21"/>
+      <c r="H14" s="21">
         <v>0.25100453234969988</v>
       </c>
-      <c r="H14" s="22">
+      <c r="I14" s="21">
         <v>-0.28599178792943958</v>
       </c>
-      <c r="I14" s="30">
+      <c r="J14" s="42">
+        <v>0.34286001763016238</v>
+      </c>
+      <c r="K14" s="29">
         <v>0.34843093582990808</v>
       </c>
-      <c r="J14" s="22">
+      <c r="L14" s="21">
         <v>0.31212598111972939</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>9.2827431765593299E-2</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>0.23206510832558169</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="39">
+        <v>9.8952439333833797E-2</v>
+      </c>
+      <c r="E15" s="21">
         <v>9.9048268081384394E-2</v>
       </c>
-      <c r="E15" s="22">
+      <c r="F15" s="21">
         <v>0.1002024931944855</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22">
+      <c r="G15" s="21"/>
+      <c r="H15" s="21">
         <v>0.19289050033005881</v>
       </c>
-      <c r="H15" s="22">
+      <c r="I15" s="21">
         <v>0.46389091637844798</v>
       </c>
-      <c r="I15" s="22">
+      <c r="J15" s="39">
+        <v>0.20325264902384771</v>
+      </c>
+      <c r="K15" s="21">
         <v>0.19790130362596689</v>
       </c>
-      <c r="J15" s="22">
+      <c r="L15" s="21">
         <v>0.20037315040810691</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>-0.64456029503611889</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>0.78436651910119415</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="39">
+        <v>-0.51961365387938374</v>
+      </c>
+      <c r="E16" s="21">
         <v>0.1558603406596907</v>
       </c>
-      <c r="E16" s="22">
+      <c r="F16" s="21">
         <v>0.23206396498343501</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22">
+      <c r="G16" s="21"/>
+      <c r="H16" s="21">
         <v>-0.29913872636473682</v>
       </c>
-      <c r="H16" s="22">
+      <c r="I16" s="21">
         <v>1.4766434067362559</v>
       </c>
-      <c r="I16" s="22">
+      <c r="J16" s="39">
+        <v>-0.28272772734725882</v>
+      </c>
+      <c r="K16" s="21">
         <v>-0.18622093015856619</v>
       </c>
-      <c r="J16" s="22">
+      <c r="L16" s="21">
         <v>-8.1494607352841197E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="23">
         <v>0.2639795558374825</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>0.98725975019366863</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="41">
+        <v>0.25540428383690211</v>
+      </c>
+      <c r="E17" s="23">
         <v>0.22208801137037421</v>
       </c>
-      <c r="E17" s="24">
+      <c r="F17" s="23">
         <v>0.22861301249494859</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24">
+      <c r="G17" s="23"/>
+      <c r="H17" s="23">
         <v>0.30708684205159342</v>
       </c>
-      <c r="H17" s="24">
+      <c r="I17" s="23">
         <v>0.97865895263828517</v>
       </c>
-      <c r="I17" s="24">
+      <c r="J17" s="41">
+        <v>0.30089445442266471</v>
+      </c>
+      <c r="K17" s="23">
         <v>0.2917033548022282</v>
       </c>
-      <c r="J17" s="24">
+      <c r="L17" s="23">
         <v>0.29339960042486041</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>1451</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="30">
         <v>165</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="43">
         <v>1286</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
+        <v>1286</v>
+      </c>
+      <c r="F18" s="30">
         <v>1224</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31">
+      <c r="G18" s="30"/>
+      <c r="H18" s="30">
         <v>1451</v>
       </c>
-      <c r="H18" s="31">
+      <c r="I18" s="30">
         <v>165</v>
       </c>
-      <c r="I18" s="31">
+      <c r="J18" s="43">
         <v>1286</v>
       </c>
-      <c r="J18" s="31">
+      <c r="K18" s="30">
+        <v>1286</v>
+      </c>
+      <c r="L18" s="30">
         <v>1224</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>-4.6327052830329001E-3</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>0.64490459403587563</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="39">
         <v>-8.7971472302955003E-2</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
+        <v>-8.7971472302955003E-2</v>
+      </c>
+      <c r="F19" s="21">
         <v>-0.1278954050426632</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22">
+      <c r="G19" s="21"/>
+      <c r="H19" s="21">
         <v>-4.6327052830329001E-3</v>
       </c>
-      <c r="H19" s="22">
+      <c r="I19" s="21">
         <v>0.64490459403587563</v>
       </c>
-      <c r="I19" s="22">
+      <c r="J19" s="39">
         <v>-8.7971472302955003E-2</v>
       </c>
-      <c r="J19" s="22">
+      <c r="K19" s="21">
+        <v>-8.7971472302955003E-2</v>
+      </c>
+      <c r="L19" s="21">
         <v>-0.1278954050426632</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>1.2390117681245221</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>0.97909970331943341</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="39">
         <v>1.244507430397322</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
+        <v>1.244507430397322</v>
+      </c>
+      <c r="F20" s="21">
         <v>1.243481291825141</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22">
+      <c r="G20" s="21"/>
+      <c r="H20" s="21">
         <v>1.2390117681245221</v>
       </c>
-      <c r="H20" s="22">
+      <c r="I20" s="21">
         <v>0.97909970331943341</v>
       </c>
-      <c r="I20" s="22">
+      <c r="J20" s="39">
         <v>1.244507430397322</v>
       </c>
-      <c r="J20" s="22">
+      <c r="K20" s="21">
+        <v>1.244507430397322</v>
+      </c>
+      <c r="L20" s="21">
         <v>1.243481291825141</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>8.3532623054420801E-2</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>0.14663053038959711</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="41">
+        <v>6.0736480781608197E-2</v>
+      </c>
+      <c r="E21" s="23">
         <v>0.26062184677659378</v>
       </c>
-      <c r="E21" s="24">
+      <c r="F21" s="23">
         <v>0.24285765485841279</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24">
+      <c r="G21" s="23"/>
+      <c r="H21" s="23">
         <v>0.35306880904707388</v>
       </c>
-      <c r="H21" s="24">
+      <c r="I21" s="23">
         <v>0.47404065179798299</v>
       </c>
-      <c r="I21" s="24">
+      <c r="J21" s="41">
+        <v>0.33969377760306418</v>
+      </c>
+      <c r="K21" s="23">
         <v>0.37502216430269641</v>
       </c>
-      <c r="J21" s="24">
+      <c r="L21" s="23">
         <v>0.36249087069569091</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Outputs/manuscript/tables.xlsx
+++ b/Outputs/manuscript/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbdaniels/GitHub/ssm-rhcp-2019/Outputs/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC356AB9-C597-3F45-8F35-E021FE1BF365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872D3B3A-F494-6F4F-8286-CB3E08CAF0D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="22580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="3" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>State Fixed Effects</t>
   </si>
   <si>
-    <t>OLS Regression</t>
-  </si>
-  <si>
     <t>Competence Mean</t>
   </si>
   <si>
@@ -201,6 +198,9 @@
   </si>
   <si>
     <t>Public Providers</t>
+  </si>
+  <si>
+    <t>No State Fixed Effects</t>
   </si>
 </sst>
 </file>
@@ -491,15 +491,15 @@
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,24 +848,24 @@
     <row r="2" spans="1:6" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="26"/>
       <c r="B2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="24">
         <v>0.1158918</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="24">
         <v>3.7915999999999998E-2</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="24">
         <v>3.8598100000000003E-2</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="24">
         <v>2.6143199999999998E-2</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="24">
         <v>9.4918600000000006E-2</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="24">
         <v>4.9821200000000003E-2</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="24">
         <v>0.05</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="24">
         <v>0</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="24">
         <v>0.1154642</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="24">
         <v>0.37875310000000001</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="24">
         <v>7.5735000000000004E-3</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="24">
         <v>2.64339E-2</v>
@@ -1105,7 +1105,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="24">
         <v>4.2600600000000002E-2</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="24">
         <v>0.16458529999999999</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="24">
         <v>4.99379E-2</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="24">
         <v>6.6390699999999997E-2</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="24">
         <v>3.6784600000000001E-2</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="24">
         <v>0</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="28">
         <v>6.2896800000000003E-2</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="32">
         <v>6.4126500000000003E-2</v>
@@ -1297,10 +1297,10 @@
     <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
       <c r="B2" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>10</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="20">
         <v>0.10782960631353999</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="21">
         <v>0.97533653023810185</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="21">
         <v>-1.087693351042895</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="21">
         <v>1.383838220948125</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="21">
         <v>2.383678114771989</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="20">
         <v>3.8097823433080449</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="21">
         <v>0.94477636554091038</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="21">
         <v>-0.99314719384658889</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23"/>
       <c r="C23" s="20">
@@ -1608,7 +1608,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25"/>
       <c r="C25" s="20">
@@ -1656,7 +1656,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="30">
         <v>3143</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="21">
         <v>14.26363922947403</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="23">
         <v>17.90128200436645</v>
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J15"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1723,21 +1723,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="10"/>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="36">
@@ -1777,7 +1777,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
@@ -1793,7 +1793,7 @@
         <v>7</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>8</v>
@@ -1815,7 +1815,7 @@
       <c r="C4" s="20">
         <v>0.65632594318798976</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <v>0.48006645098854772</v>
       </c>
       <c r="E4" s="22">
@@ -1827,7 +1827,7 @@
       <c r="I4" s="22">
         <v>0.57937142981453615</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="38">
         <v>6.5234783608166896E-2</v>
       </c>
       <c r="K4" s="21">
@@ -1844,7 +1844,7 @@
       <c r="C5" s="21">
         <v>0.2163001074935299</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="38">
         <v>0.19233533610090359</v>
       </c>
       <c r="E5" s="21">
@@ -1856,7 +1856,7 @@
       <c r="I5" s="21">
         <v>0.22784349420590899</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="38">
         <v>0.17193908478555539</v>
       </c>
       <c r="K5" s="21">
@@ -1873,7 +1873,7 @@
       <c r="C6" s="21">
         <v>0.18766164446218619</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="39">
         <v>-0.53570588841842304</v>
       </c>
       <c r="E6" s="20">
@@ -1889,7 +1889,7 @@
       <c r="I6" s="22">
         <v>0.36314767833924672</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <v>-0.2279444102399529</v>
       </c>
       <c r="K6" s="29">
@@ -1909,7 +1909,7 @@
       <c r="C7" s="21">
         <v>0.23824995775409891</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>0.13945749866996959</v>
       </c>
       <c r="E7" s="21">
@@ -1925,7 +1925,7 @@
       <c r="I7" s="21">
         <v>0.17362208185530709</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="38">
         <v>0.11379034794698301</v>
       </c>
       <c r="K7" s="21">
@@ -1945,7 +1945,7 @@
       <c r="C8" s="21">
         <v>-2.2141415016445801E-2</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="38">
         <v>-3.1625871631349998E-4</v>
       </c>
       <c r="E8" s="21">
@@ -1961,7 +1961,7 @@
       <c r="I8" s="29">
         <v>-2.6866747619026601E-2</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="38">
         <v>-3.7753611968754002E-3</v>
       </c>
       <c r="K8" s="21">
@@ -1981,7 +1981,7 @@
       <c r="C9" s="21">
         <v>1.8859988094596099E-2</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="38">
         <v>4.2049257149288002E-3</v>
       </c>
       <c r="E9" s="21">
@@ -1997,7 +1997,7 @@
       <c r="I9" s="21">
         <v>1.46470239935792E-2</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="38">
         <v>3.5870400215634998E-3</v>
       </c>
       <c r="K9" s="21">
@@ -2067,7 +2067,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="20">
         <v>0.6364876564837556</v>
@@ -2075,7 +2075,7 @@
       <c r="C14" s="21">
         <v>0.14864688301243659</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="39">
         <v>0.67669918391932238</v>
       </c>
       <c r="E14" s="21">
@@ -2091,7 +2091,7 @@
       <c r="I14" s="21">
         <v>-0.28599178792943958</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="41">
         <v>0.34286001763016238</v>
       </c>
       <c r="K14" s="29">
@@ -2111,7 +2111,7 @@
       <c r="C15" s="21">
         <v>0.23206510832558169</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="38">
         <v>9.8952439333833797E-2</v>
       </c>
       <c r="E15" s="21">
@@ -2127,7 +2127,7 @@
       <c r="I15" s="21">
         <v>0.46389091637844798</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="38">
         <v>0.20325264902384771</v>
       </c>
       <c r="K15" s="21">
@@ -2147,7 +2147,7 @@
       <c r="C16" s="21">
         <v>0.78436651910119415</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="38">
         <v>-0.51961365387938374</v>
       </c>
       <c r="E16" s="21">
@@ -2163,7 +2163,7 @@
       <c r="I16" s="21">
         <v>1.4766434067362559</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="38">
         <v>-0.28272772734725882</v>
       </c>
       <c r="K16" s="21">
@@ -2183,7 +2183,7 @@
       <c r="C17" s="23">
         <v>0.98725975019366863</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="40">
         <v>0.25540428383690211</v>
       </c>
       <c r="E17" s="23">
@@ -2199,7 +2199,7 @@
       <c r="I17" s="23">
         <v>0.97865895263828517</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="40">
         <v>0.30089445442266471</v>
       </c>
       <c r="K17" s="23">
@@ -2211,7 +2211,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="30">
         <v>1451</v>
@@ -2219,7 +2219,7 @@
       <c r="C18" s="30">
         <v>165</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="42">
         <v>1286</v>
       </c>
       <c r="E18" s="30">
@@ -2235,7 +2235,7 @@
       <c r="I18" s="30">
         <v>165</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="42">
         <v>1286</v>
       </c>
       <c r="K18" s="30">
@@ -2247,7 +2247,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="21">
         <v>-4.6327052830329001E-3</v>
@@ -2255,7 +2255,7 @@
       <c r="C19" s="21">
         <v>0.64490459403587563</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="38">
         <v>-8.7971472302955003E-2</v>
       </c>
       <c r="E19" s="21">
@@ -2271,7 +2271,7 @@
       <c r="I19" s="21">
         <v>0.64490459403587563</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="38">
         <v>-8.7971472302955003E-2</v>
       </c>
       <c r="K19" s="21">
@@ -2283,7 +2283,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="21">
         <v>1.2390117681245221</v>
@@ -2291,7 +2291,7 @@
       <c r="C20" s="21">
         <v>0.97909970331943341</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="38">
         <v>1.244507430397322</v>
       </c>
       <c r="E20" s="21">
@@ -2307,7 +2307,7 @@
       <c r="I20" s="21">
         <v>0.97909970331943341</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="38">
         <v>1.244507430397322</v>
       </c>
       <c r="K20" s="21">
@@ -2319,7 +2319,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="23">
         <v>8.3532623054420801E-2</v>
@@ -2327,7 +2327,7 @@
       <c r="C21" s="23">
         <v>0.14663053038959711</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="40">
         <v>6.0736480781608197E-2</v>
       </c>
       <c r="E21" s="23">
@@ -2343,7 +2343,7 @@
       <c r="I21" s="23">
         <v>0.47404065179798299</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="40">
         <v>0.33969377760306418</v>
       </c>
       <c r="K21" s="23">
